--- a/P2P-Project/trunk/nodeJS和mongoose前后端全栈分析.xlsx
+++ b/P2P-Project/trunk/nodeJS和mongoose前后端全栈分析.xlsx
@@ -3291,7 +3291,55 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>、 获得接收的数据</a:t>
+              <a:t>、 获得接收的数据（这里必须使用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>req</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>，</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>res</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>，不能颠倒位置）</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4025,16 +4073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4043,7 +4091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17735550" y="3848100"/>
+          <a:off x="17573625" y="4048125"/>
           <a:ext cx="2886075" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4346,6 +4394,1598 @@
               <a:t>的操作的一个对象模型库</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="组合 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="476250" y="15325725"/>
+          <a:ext cx="14963775" cy="4000500"/>
+          <a:chOff x="476250" y="15325725"/>
+          <a:chExt cx="14963775" cy="3076575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="矩形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="476250" y="15325725"/>
+            <a:ext cx="7086600" cy="3038475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="文本框 30"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="542925" y="15401925"/>
+            <a:ext cx="6934200" cy="2867025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一、前端页面加载时自动使用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ajax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>发请求去后台的路由请求数据</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>发送</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ajax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>，</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>$.get</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>方式请求数据</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>二、前端定义模板，在前端页面上引入</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>artTemplate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>文件，并使用插值表达式，循环</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>{{each </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>接收到的数据 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>as v i}}</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;td&gt;{{v.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>接收到的具体键名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>}}&lt;/td&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>{{/each}}</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>三、模板语法渲染模板</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>如果没有</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>JSON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>格式，需要自己架构一个</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>JSON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>对象，用于后面渲染模板</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>语法：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>template('</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>模板名称</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(script</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>标签的模板名称</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)',JSON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>格式下的数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="矩形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8353425" y="15363825"/>
+            <a:ext cx="7086600" cy="3038475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="文本框 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8420100" y="15440025"/>
+            <a:ext cx="6934200" cy="2867025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一、后端接收前端发来的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>get</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>请求，通过</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>模型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>.find({</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>查询条件</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>},function(err,list){</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>判断之后</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>res.json(list)})</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="14592300"/>
+          <a:ext cx="3495675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前端页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="14630400"/>
+          <a:ext cx="3495675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>后端页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="组合 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="476250" y="20240625"/>
+          <a:ext cx="6858000" cy="3419475"/>
+          <a:chOff x="476250" y="20240625"/>
+          <a:chExt cx="6858000" cy="3419475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="矩形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="476250" y="20240625"/>
+            <a:ext cx="6858000" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="文本框 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="20307300"/>
+            <a:ext cx="6753225" cy="3305175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一、了解分页需要准备的条件</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①当前页：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>currentPage(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>点击的页码</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②每页数据数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:pageSize</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③总的记录数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:recordCount(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>数据库中存储的条数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④总页数：总的记录数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>每页显示数据数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Math.ceil(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>recordCount/pageSize</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤数据的开始位置</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:start=(currentPage-1)*pageSize</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑥数据的结束位置</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:end=start+pageSize</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="19650075"/>
+          <a:ext cx="3829050" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分页的实现思路</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="组合 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7962900" y="20221575"/>
+          <a:ext cx="6858000" cy="5743575"/>
+          <a:chOff x="7934325" y="20269200"/>
+          <a:chExt cx="6858000" cy="3419475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="矩形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7934325" y="20269200"/>
+            <a:ext cx="6858000" cy="3419475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="文本框 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7972425" y="20326350"/>
+            <a:ext cx="6753225" cy="3305175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>二、插件分页的实现步骤</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>JqueryPagination</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>插件前端发送</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ajax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>请求但是后台没有对应路由接收数据：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>pageIndex</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>和</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>pageSize</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>前端</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>url</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>请求后台路由内数据，以</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>json</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>格式返回</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>三、后台查询时，在接收到的前端发来的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>get</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>请求时①需要全表查询所有数据</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①模型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>.find({},function(err,data){</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     if(!err){</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>            var listJson={</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>             "total": list.length,//</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>总的数据数</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>             "list": []</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>              };</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>})</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>；</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②获取前端发来的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>get</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>请求需要查询的含条件数据</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>var pageIndex=req.query.pageIndex;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>var pageSize=req.query.pageSize;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4648,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN22" workbookViewId="0">
-      <selection activeCell="EE14" sqref="EE14"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="AN263" sqref="AN263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.15"/>
